--- a/data/trans_camb/P9_1_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P9_1_R-Estudios-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>4,23; 11,75</t>
+          <t>4,18; 11,49</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,01; 9,9</t>
+          <t>2,26; 9,92</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>8,66; 17,6</t>
+          <t>8,79; 17,42</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>7,08; 14,51</t>
+          <t>7,03; 14,31</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>6,32; 14,46</t>
+          <t>6,53; 14,89</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>13,78; 21,69</t>
+          <t>14,11; 21,57</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>7,03; 12,22</t>
+          <t>6,99; 12,1</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>5,59; 11,44</t>
+          <t>5,91; 11,74</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>13,44; 19,41</t>
+          <t>13,47; 19,26</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>22,24; 75,57</t>
+          <t>22,02; 72,4</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>10,22; 64,61</t>
+          <t>12,73; 64,23</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>44,56; 113,7</t>
+          <t>47,76; 110,05</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>24,39; 58,35</t>
+          <t>24,39; 57,12</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>22,71; 57,83</t>
+          <t>24,08; 60,29</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>48,0; 87,54</t>
+          <t>50,42; 87,52</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>29,61; 57,6</t>
+          <t>29,47; 57,04</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>23,85; 52,9</t>
+          <t>25,03; 55,38</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>57,43; 90,85</t>
+          <t>57,1; 90,91</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,02; 3,16</t>
+          <t>-0,17; 2,93</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,22; 3,45</t>
+          <t>-0,04; 3,4</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>4,52; 8,26</t>
+          <t>4,35; 8,29</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,63; 3,92</t>
+          <t>-0,82; 3,71</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,0; 5,33</t>
+          <t>0,86; 5,42</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,5; 6,52</t>
+          <t>1,68; 6,51</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,13; 2,83</t>
+          <t>0,06; 2,74</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,08; 3,75</t>
+          <t>1,08; 3,81</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>3,88; 7,05</t>
+          <t>3,89; 6,93</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,6; 65,57</t>
+          <t>-2,8; 61,6</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,13; 74,21</t>
+          <t>-2,04; 71,58</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>70,33; 175,36</t>
+          <t>67,76; 172,29</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-5,73; 42,58</t>
+          <t>-7,65; 38,85</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>7,8; 57,82</t>
+          <t>7,83; 61,94</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>13,47; 72,13</t>
+          <t>15,91; 72,17</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>1,56; 40,18</t>
+          <t>0,52; 37,66</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>12,73; 52,18</t>
+          <t>12,49; 54,09</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>45,71; 99,06</t>
+          <t>46,2; 98,3</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,99; 5,02</t>
+          <t>-1,23; 5,17</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,69; 3,92</t>
+          <t>-1,66; 3,92</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,86; 6,27</t>
+          <t>0,52; 6,29</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-4,87; 2,6</t>
+          <t>-4,82; 2,78</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-2,73; 4,85</t>
+          <t>-2,88; 4,88</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-3,32; 3,6</t>
+          <t>-2,8; 3,85</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-1,88; 2,88</t>
+          <t>-1,87; 2,98</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-1,04; 3,28</t>
+          <t>-0,96; 3,6</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-0,16; 4,2</t>
+          <t>-0,02; 4,28</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-20,31; 144,61</t>
+          <t>-24,43; 159,78</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-31,36; 120,89</t>
+          <t>-32,44; 116,75</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>14,84; 193,22</t>
+          <t>8,54; 202,81</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-45,23; 35,87</t>
+          <t>-44,95; 43,24</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-24,98; 70,86</t>
+          <t>-27,39; 65,58</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-28,58; 51,7</t>
+          <t>-24,15; 54,54</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-24,91; 54,17</t>
+          <t>-24,13; 52,43</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-15,16; 59,22</t>
+          <t>-14,13; 67,86</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-2,39; 76,69</t>
+          <t>-0,37; 78,32</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>1,44; 4,5</t>
+          <t>1,51; 4,57</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,1; 2,9</t>
+          <t>0,04; 2,82</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>3,36; 6,63</t>
+          <t>3,31; 6,63</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>2,72; 6,44</t>
+          <t>2,52; 6,28</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>1,26; 4,96</t>
+          <t>0,98; 4,98</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>1,46; 5,58</t>
+          <t>1,34; 5,75</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>2,6; 4,95</t>
+          <t>2,52; 4,97</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0,92; 3,46</t>
+          <t>1,05; 3,61</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>3,25; 5,78</t>
+          <t>3,17; 5,89</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>14,28; 55,13</t>
+          <t>15,8; 54,81</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-1,03; 34,39</t>
+          <t>0,38; 34,1</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>34,56; 78,84</t>
+          <t>33,8; 80,35</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>15,55; 41,84</t>
+          <t>14,4; 40,74</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>7,19; 31,99</t>
+          <t>5,73; 31,95</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>8,85; 36,32</t>
+          <t>8,2; 37,94</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>19,65; 40,52</t>
+          <t>19,01; 41,03</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>6,87; 28,4</t>
+          <t>7,93; 29,3</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>24,29; 47,34</t>
+          <t>24,04; 49,09</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P9_1_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P9_1_R-Estudios-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>4,18; 11,49</t>
+          <t>3,94; 11,37</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,26; 9,92</t>
+          <t>1,98; 9,88</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>8,79; 17,42</t>
+          <t>8,42; 17,04</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>7,03; 14,31</t>
+          <t>7,15; 14,5</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>6,53; 14,89</t>
+          <t>6,42; 14,84</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>14,11; 21,57</t>
+          <t>14,18; 21,68</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>6,99; 12,1</t>
+          <t>7,1; 12,27</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>5,91; 11,74</t>
+          <t>5,94; 11,46</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>13,47; 19,26</t>
+          <t>13,54; 19,22</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>22,02; 72,4</t>
+          <t>20,89; 72,43</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>12,73; 64,23</t>
+          <t>10,15; 63,4</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>47,76; 110,05</t>
+          <t>45,45; 108,0</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>24,39; 57,12</t>
+          <t>25,2; 59,69</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>24,08; 60,29</t>
+          <t>22,34; 58,16</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>50,42; 87,52</t>
+          <t>50,25; 88,59</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>29,47; 57,04</t>
+          <t>29,87; 57,92</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>25,03; 55,38</t>
+          <t>24,89; 53,12</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>57,1; 90,91</t>
+          <t>57,58; 90,56</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,17; 2,93</t>
+          <t>-0,31; 3,19</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,04; 3,4</t>
+          <t>0,04; 3,26</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>4,35; 8,29</t>
+          <t>4,36; 8,39</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,82; 3,71</t>
+          <t>-0,63; 3,63</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,86; 5,42</t>
+          <t>0,92; 5,25</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,68; 6,51</t>
+          <t>1,54; 6,6</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,06; 2,74</t>
+          <t>0,08; 2,65</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,08; 3,81</t>
+          <t>1,09; 3,66</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>3,89; 6,93</t>
+          <t>3,74; 6,79</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-2,8; 61,6</t>
+          <t>-5,6; 68,34</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-2,04; 71,58</t>
+          <t>1,19; 69,45</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>67,76; 172,29</t>
+          <t>66,85; 174,45</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-7,65; 38,85</t>
+          <t>-5,63; 40,96</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>7,83; 61,94</t>
+          <t>7,95; 57,15</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>15,91; 72,17</t>
+          <t>15,32; 74,18</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,52; 37,66</t>
+          <t>0,96; 37,65</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>12,49; 54,09</t>
+          <t>12,85; 51,61</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>46,2; 98,3</t>
+          <t>44,52; 96,41</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,23; 5,17</t>
+          <t>-1,0; 5,17</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,66; 3,92</t>
+          <t>-1,82; 3,86</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,52; 6,29</t>
+          <t>0,6; 6,37</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-4,82; 2,78</t>
+          <t>-4,92; 2,8</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-2,88; 4,88</t>
+          <t>-3,06; 4,67</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-2,8; 3,85</t>
+          <t>-2,83; 3,65</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-1,87; 2,98</t>
+          <t>-1,9; 2,91</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-0,96; 3,6</t>
+          <t>-1,36; 3,44</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-0,02; 4,28</t>
+          <t>0,05; 4,14</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-24,43; 159,78</t>
+          <t>-19,99; 144,69</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-32,44; 116,75</t>
+          <t>-35,87; 110,99</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>8,54; 202,81</t>
+          <t>5,86; 185,54</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-44,95; 43,24</t>
+          <t>-45,6; 40,73</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-27,39; 65,58</t>
+          <t>-27,15; 63,29</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-24,15; 54,54</t>
+          <t>-25,16; 52,12</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-24,13; 52,43</t>
+          <t>-25,0; 52,52</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-14,13; 67,86</t>
+          <t>-17,78; 59,8</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-0,37; 78,32</t>
+          <t>0,17; 76,18</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>1,51; 4,57</t>
+          <t>1,34; 4,35</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,04; 2,82</t>
+          <t>-0,17; 2,9</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>3,31; 6,63</t>
+          <t>3,31; 6,56</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>2,52; 6,28</t>
+          <t>2,56; 6,38</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0,98; 4,98</t>
+          <t>1,28; 5,19</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>1,34; 5,75</t>
+          <t>1,51; 5,72</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>2,52; 4,97</t>
+          <t>2,38; 4,94</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>1,05; 3,61</t>
+          <t>1,08; 3,58</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>3,17; 5,89</t>
+          <t>3,26; 5,81</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>15,8; 54,81</t>
+          <t>13,96; 51,8</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>0,38; 34,1</t>
+          <t>-1,6; 35,14</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>33,8; 80,35</t>
+          <t>33,97; 77,94</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>14,4; 40,74</t>
+          <t>14,9; 41,56</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>5,73; 31,95</t>
+          <t>7,19; 33,42</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>8,2; 37,94</t>
+          <t>9,06; 37,15</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>19,01; 41,03</t>
+          <t>18,13; 40,64</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>7,93; 29,3</t>
+          <t>7,98; 29,71</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>24,04; 49,09</t>
+          <t>24,67; 47,41</t>
         </is>
       </c>
     </row>
